--- a/test/CT-DR-B-CS-ES-II.2.6-00-C-20250812-01/CT-DR-B-CS-ES-II.2.6-00-C-20250812-01_CMM.xlsx
+++ b/test/CT-DR-B-CS-ES-II.2.6-00-C-20250812-01/CT-DR-B-CS-ES-II.2.6-00-C-20250812-01_CMM.xlsx
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C4" s="60" t="n"/>
       <c r="D4" s="91" t="n">
-        <v>45894.55979907054</v>
+        <v>45894.56616773725</v>
       </c>
       <c r="E4" s="15" t="n"/>
       <c r="F4" s="16" t="inlineStr">
